--- a/FuseLinks/GhendyConsumidor.xlsx
+++ b/FuseLinks/GhendyConsumidor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:Q155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +481,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Tempo Abertura Fase A1 Isolador</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Corrente Fase A1 Isolador</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo Abertura Fase B1 Isolador</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Corrente Fase B1 Isolador</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -556,6 +576,22 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,6 +649,22 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,6 +722,22 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -727,6 +795,22 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>9.765700000000001</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,6 +868,22 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -841,6 +941,22 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -898,6 +1014,22 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -955,6 +1087,22 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1012,6 +1160,22 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1069,6 +1233,22 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1126,6 +1306,22 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1183,6 +1379,22 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>11.3547</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1240,6 +1452,22 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>11.1749</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1297,6 +1525,22 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1354,6 +1598,22 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>9.679930000000001</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1411,6 +1671,22 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1468,6 +1744,22 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1525,6 +1817,22 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1582,6 +1890,22 @@
       <c r="M20" t="n">
         <v>9.714359999999999</v>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.714359999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1639,6 +1963,22 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1696,6 +2036,22 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1753,6 +2109,22 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1810,6 +2182,22 @@
       <c r="M24" t="n">
         <v>0</v>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>10.6624</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1867,6 +2255,22 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>10.392</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1924,6 +2328,22 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1981,6 +2401,22 @@
       <c r="M27" t="n">
         <v>0</v>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>11.1473</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2038,6 +2474,22 @@
       <c r="M28" t="n">
         <v>0</v>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2095,6 +2547,22 @@
       <c r="M29" t="n">
         <v>8.07441</v>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>23.7919</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>8.07441</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2152,6 +2620,22 @@
       <c r="M30" t="n">
         <v>10.2423</v>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>10.2423</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2209,6 +2693,22 @@
       <c r="M31" t="n">
         <v>10.2303</v>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>10.2303</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2266,6 +2766,22 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2323,6 +2839,22 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2380,6 +2912,22 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2435,6 +2983,20 @@
       <c r="M35" t="n">
         <v>66.0538</v>
       </c>
+      <c r="N35" t="n">
+        <v>2.39079</v>
+      </c>
+      <c r="O35" t="n">
+        <v>19.6483</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>66.0538</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2490,6 +3052,20 @@
       <c r="M36" t="n">
         <v>38.1791</v>
       </c>
+      <c r="N36" t="n">
+        <v>2.74413</v>
+      </c>
+      <c r="O36" t="n">
+        <v>18.3998</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>38.1791</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2545,6 +3121,20 @@
       <c r="M37" t="n">
         <v>12.2446</v>
       </c>
+      <c r="N37" t="n">
+        <v>3.47871</v>
+      </c>
+      <c r="O37" t="n">
+        <v>16.4545</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>12.2446</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2600,6 +3190,20 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
+      <c r="N38" t="n">
+        <v>3.1098</v>
+      </c>
+      <c r="O38" t="n">
+        <v>17.3429</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2657,6 +3261,22 @@
       <c r="M39" t="n">
         <v>5.6466</v>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>13.8339</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.6466</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2714,6 +3334,22 @@
       <c r="M40" t="n">
         <v>12.4312</v>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>12.4312</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2769,6 +3405,20 @@
       <c r="M41" t="n">
         <v>16.7086</v>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>19.9667</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.36658</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>16.7086</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2824,6 +3474,20 @@
       <c r="M42" t="n">
         <v>23.6182</v>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>11.1356</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.63018</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>23.6182</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2881,6 +3545,22 @@
       <c r="M43" t="n">
         <v>0</v>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>10.4669</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2938,6 +3618,22 @@
       <c r="M44" t="n">
         <v>10.4191</v>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>13.324</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>10.4191</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2995,6 +3691,22 @@
       <c r="M45" t="n">
         <v>13.624</v>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>13.624</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3044,6 +3756,20 @@
       <c r="M46" t="n">
         <v>23.059</v>
       </c>
+      <c r="N46" t="n">
+        <v>1.6882</v>
+      </c>
+      <c r="O46" t="n">
+        <v>23.2232</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>23.059</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3091,6 +3817,18 @@
       <c r="M47" t="n">
         <v>23.2656</v>
       </c>
+      <c r="N47" t="n">
+        <v>1.68454</v>
+      </c>
+      <c r="O47" t="n">
+        <v>23.2475</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.68183</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>23.2656</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3146,6 +3884,20 @@
       <c r="M48" t="n">
         <v>24.9178</v>
       </c>
+      <c r="N48" t="n">
+        <v>1.99321</v>
+      </c>
+      <c r="O48" t="n">
+        <v>21.4383</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>24.9178</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3201,6 +3953,20 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
+      <c r="N49" t="n">
+        <v>2.35027</v>
+      </c>
+      <c r="O49" t="n">
+        <v>19.8095</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3258,6 +4024,22 @@
       <c r="M50" t="n">
         <v>8.148999999999999</v>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>17.3277</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>8.148999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3315,6 +4097,22 @@
       <c r="M51" t="n">
         <v>16.6892</v>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>16.6892</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3370,6 +4168,20 @@
       <c r="M52" t="n">
         <v>21.7866</v>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>15.0432</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.92751</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>21.7866</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3425,6 +4237,20 @@
       <c r="M53" t="n">
         <v>22.6225</v>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>14.9741</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.78253</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>22.6225</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3482,6 +4308,22 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>13.5187</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3533,6 +4375,22 @@
       <c r="M55" t="n">
         <v>2.76892</v>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>2.76355</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.76892</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3590,6 +4448,22 @@
       <c r="M56" t="n">
         <v>18.7404</v>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>18.7404</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3643,6 +4517,18 @@
       <c r="M57" t="n">
         <v>22.7571</v>
       </c>
+      <c r="N57" t="n">
+        <v>1.34292</v>
+      </c>
+      <c r="O57" t="n">
+        <v>25.9337</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.76072</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>22.7571</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3698,6 +4584,20 @@
       <c r="M58" t="n">
         <v>23.0988</v>
       </c>
+      <c r="N58" t="n">
+        <v>1.52493</v>
+      </c>
+      <c r="O58" t="n">
+        <v>24.391</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>23.0988</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3753,6 +4653,20 @@
       <c r="M59" t="n">
         <v>12.195</v>
       </c>
+      <c r="N59" t="n">
+        <v>1.61874</v>
+      </c>
+      <c r="O59" t="n">
+        <v>23.6986</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>12.195</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3808,6 +4722,20 @@
       <c r="M60" t="n">
         <v>0</v>
       </c>
+      <c r="N60" t="n">
+        <v>1.71333</v>
+      </c>
+      <c r="O60" t="n">
+        <v>23.0584</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3865,6 +4793,22 @@
       <c r="M61" t="n">
         <v>7.24223</v>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>16.2466</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>7.24223</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3922,6 +4866,22 @@
       <c r="M62" t="n">
         <v>15.7358</v>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>15.7358</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3977,6 +4937,20 @@
       <c r="M63" t="n">
         <v>25.0254</v>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0127822</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.44591</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>25.0254</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4032,6 +5006,20 @@
       <c r="M64" t="n">
         <v>22.9118</v>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>15.152</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.73614</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>22.9118</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4089,6 +5077,22 @@
       <c r="M65" t="n">
         <v>0</v>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>14.603</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4140,6 +5144,22 @@
       <c r="M66" t="n">
         <v>15.5996</v>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>19.7212</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>15.5996</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4197,6 +5217,22 @@
       <c r="M67" t="n">
         <v>17.7572</v>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>17.7572</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4254,6 +5290,22 @@
       <c r="M68" t="n">
         <v>34.0246</v>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>35.5267</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>34.0246</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4311,6 +5363,22 @@
       <c r="M69" t="n">
         <v>34.0646</v>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>36.2487</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>34.0646</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4368,6 +5436,22 @@
       <c r="M70" t="n">
         <v>22.3413</v>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>32.0916</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>22.3413</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4425,6 +5509,22 @@
       <c r="M71" t="n">
         <v>10.5132</v>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>32.5772</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>10.5132</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4482,6 +5582,22 @@
       <c r="M72" t="n">
         <v>24.058</v>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>22.2016</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>24.058</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4539,6 +5655,22 @@
       <c r="M73" t="n">
         <v>32.2553</v>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>35.884</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>32.2553</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4596,6 +5728,22 @@
       <c r="M74" t="n">
         <v>34.62</v>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>24.0548</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>34.62</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4653,6 +5801,22 @@
       <c r="M75" t="n">
         <v>34.5288</v>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>23.2421</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>34.5288</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4710,6 +5874,22 @@
       <c r="M76" t="n">
         <v>0</v>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>20.6826</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4767,6 +5947,22 @@
       <c r="M77" t="n">
         <v>20.8582</v>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>26.8607</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>20.8582</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4824,6 +6020,22 @@
       <c r="M78" t="n">
         <v>26.4292</v>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>26.4292</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4873,6 +6085,20 @@
       <c r="M79" t="n">
         <v>43.3463</v>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>42.0771</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.424257</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>43.3463</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4926,6 +6152,18 @@
       <c r="M80" t="n">
         <v>42.5912</v>
       </c>
+      <c r="N80" t="n">
+        <v>0.411283</v>
+      </c>
+      <c r="O80" t="n">
+        <v>43.8977</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.443059</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>42.5912</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4979,6 +6217,18 @@
       <c r="M81" t="n">
         <v>28.3882</v>
       </c>
+      <c r="N81" t="n">
+        <v>0.451393</v>
+      </c>
+      <c r="O81" t="n">
+        <v>42.272</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.30061</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>28.3882</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5034,6 +6284,20 @@
       <c r="M82" t="n">
         <v>15.3919</v>
       </c>
+      <c r="N82" t="n">
+        <v>0.500934</v>
+      </c>
+      <c r="O82" t="n">
+        <v>40.5443</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>15.3919</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5091,6 +6355,22 @@
       <c r="M83" t="n">
         <v>13.2728</v>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>28.5222</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>13.2728</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5148,6 +6428,22 @@
       <c r="M84" t="n">
         <v>29.2782</v>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>13.2546</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>29.2782</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5201,6 +6497,18 @@
       <c r="M85" t="n">
         <v>39.708</v>
       </c>
+      <c r="N85" t="n">
+        <v>1.20337</v>
+      </c>
+      <c r="O85" t="n">
+        <v>29.1721</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.5279509999999999</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>39.708</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5256,6 +6564,20 @@
       <c r="M86" t="n">
         <v>42.027</v>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>10.3088</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.457951</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>42.027</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5313,6 +6635,22 @@
       <c r="M87" t="n">
         <v>10.9954</v>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>25.9299</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>10.9954</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5364,6 +6702,22 @@
       <c r="M88" t="n">
         <v>5.63892</v>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>5.63562</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>5.63892</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5421,6 +6775,22 @@
       <c r="M89" t="n">
         <v>32.7363</v>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>32.7363</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5470,6 +6840,20 @@
       <c r="M90" t="n">
         <v>46.1203</v>
       </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>44.5644</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.364677</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>46.1203</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5525,6 +6909,20 @@
       <c r="M91" t="n">
         <v>44.7704</v>
       </c>
+      <c r="N91" t="n">
+        <v>0.341346</v>
+      </c>
+      <c r="O91" t="n">
+        <v>47.4034</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>44.7704</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5578,6 +6976,18 @@
       <c r="M92" t="n">
         <v>31.1344</v>
       </c>
+      <c r="N92" t="n">
+        <v>0.37604</v>
+      </c>
+      <c r="O92" t="n">
+        <v>45.5398</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>31.1344</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5633,6 +7043,20 @@
       <c r="M93" t="n">
         <v>10.791</v>
       </c>
+      <c r="N93" t="n">
+        <v>0.391024</v>
+      </c>
+      <c r="O93" t="n">
+        <v>44.8141</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>10.791</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5690,6 +7114,22 @@
       <c r="M94" t="n">
         <v>32.4667</v>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>31.7134</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>32.4667</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5747,6 +7187,22 @@
       <c r="M95" t="n">
         <v>31.7952</v>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>15.2654</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>31.7952</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5800,6 +7256,18 @@
       <c r="M96" t="n">
         <v>44.7561</v>
       </c>
+      <c r="N96" t="n">
+        <v>0.853927</v>
+      </c>
+      <c r="O96" t="n">
+        <v>33.0256</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.392261</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>44.7561</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5855,6 +7323,20 @@
       <c r="M97" t="n">
         <v>45.6651</v>
       </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>30.9434</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.373542</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>45.6651</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5912,6 +7394,22 @@
       <c r="M98" t="n">
         <v>12.7916</v>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>28.6087</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>12.7916</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5963,6 +7461,22 @@
       <c r="M99" t="n">
         <v>681.0289</v>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>680.0522999999999</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>681.0289</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6020,6 +7534,22 @@
       <c r="M100" t="n">
         <v>35.3235</v>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>12.451</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>35.3235</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6077,6 +7607,22 @@
       <c r="M101" t="n">
         <v>15.047</v>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>14.9871</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>15.047</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6134,6 +7680,22 @@
       <c r="M102" t="n">
         <v>15.0327</v>
       </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>15.00945</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>15.0327</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6191,6 +7753,22 @@
       <c r="M103" t="n">
         <v>15.05113</v>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>15.01801</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>15.05113</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6248,6 +7826,22 @@
       <c r="M104" t="n">
         <v>15.02116</v>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>14.99712</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>15.02116</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6305,6 +7899,22 @@
       <c r="M105" t="n">
         <v>15.02999</v>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>15.00805</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>15.02999</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6362,6 +7972,22 @@
       <c r="M106" t="n">
         <v>15.01772</v>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>15.00782</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>15.01772</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6419,6 +8045,22 @@
       <c r="M107" t="n">
         <v>15.02731</v>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>14.9986</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>15.02731</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6476,6 +8118,22 @@
       <c r="M108" t="n">
         <v>15.0126</v>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>15.00039</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>15.0126</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6533,6 +8191,22 @@
       <c r="M109" t="n">
         <v>15.04429</v>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>15.00213</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>15.04429</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6590,6 +8264,22 @@
       <c r="M110" t="n">
         <v>15.02293</v>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>15.00992</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>15.02293</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6647,6 +8337,22 @@
       <c r="M111" t="n">
         <v>15.01887</v>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>15.00793</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>15.01887</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6704,6 +8410,22 @@
       <c r="M112" t="n">
         <v>19.1694</v>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>19.15019</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>19.1694</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6761,6 +8483,22 @@
       <c r="M113" t="n">
         <v>19.32698</v>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>19.16386</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>19.32698</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6818,6 +8556,22 @@
       <c r="M114" t="n">
         <v>19.17699</v>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>19.14733</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>19.17699</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6875,6 +8629,22 @@
       <c r="M115" t="n">
         <v>19.1657</v>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>19.14667</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>19.1657</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6932,6 +8702,22 @@
       <c r="M116" t="n">
         <v>19.21743</v>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>19.14317</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>19.21743</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6989,6 +8775,22 @@
       <c r="M117" t="n">
         <v>19.1743</v>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>19.14915</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>19.1743</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7046,6 +8848,22 @@
       <c r="M118" t="n">
         <v>19.17556</v>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>19.14414</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>19.17556</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7103,6 +8921,22 @@
       <c r="M119" t="n">
         <v>19.16869</v>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>19.14284</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>19.16869</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7160,6 +8994,22 @@
       <c r="M120" t="n">
         <v>19.16551</v>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>19.13615</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>19.16551</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7217,6 +9067,22 @@
       <c r="M121" t="n">
         <v>19.17757</v>
       </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>19.14497</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>19.17757</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7274,6 +9140,22 @@
       <c r="M122" t="n">
         <v>19.17508</v>
       </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>19.14459</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>19.17508</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7331,6 +9213,22 @@
       <c r="M123" t="n">
         <v>21.11297</v>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>21.07633</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>21.11297</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7388,6 +9286,22 @@
       <c r="M124" t="n">
         <v>21.13375</v>
       </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>21.09172</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>21.13375</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7445,6 +9359,22 @@
       <c r="M125" t="n">
         <v>21.12083</v>
       </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>21.08257</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>21.12083</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7502,6 +9432,22 @@
       <c r="M126" t="n">
         <v>21.10893</v>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>21.09164</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>21.10893</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7559,6 +9505,22 @@
       <c r="M127" t="n">
         <v>21.10192</v>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>21.08575</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>21.10192</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7616,6 +9578,22 @@
       <c r="M128" t="n">
         <v>21.12382</v>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>21.08409</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>21.12382</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7673,6 +9651,22 @@
       <c r="M129" t="n">
         <v>21.10439</v>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>21.08332</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>21.10439</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7730,6 +9724,22 @@
       <c r="M130" t="n">
         <v>21.15376</v>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>21.09894</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>21.15376</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7787,6 +9797,22 @@
       <c r="M131" t="n">
         <v>21.10676</v>
       </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>21.08425</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>21.10676</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7844,6 +9870,22 @@
       <c r="M132" t="n">
         <v>21.10585</v>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>21.08051</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>21.10585</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7901,6 +9943,22 @@
       <c r="M133" t="n">
         <v>21.10838</v>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>21.10072</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>21.10838</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7958,6 +10016,22 @@
       <c r="M134" t="n">
         <v>22.97605</v>
       </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>22.93862</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>22.97605</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8015,6 +10089,22 @@
       <c r="M135" t="n">
         <v>23.01852</v>
       </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>22.95209</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>23.01852</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8072,6 +10162,22 @@
       <c r="M136" t="n">
         <v>23.00311</v>
       </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>22.95454</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>23.00311</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8129,6 +10235,22 @@
       <c r="M137" t="n">
         <v>22.99349</v>
       </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>22.95804</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>22.99349</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8186,6 +10308,22 @@
       <c r="M138" t="n">
         <v>22.99816</v>
       </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
+        <v>22.93115</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>22.99816</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8243,6 +10381,22 @@
       <c r="M139" t="n">
         <v>22.98729</v>
       </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
+        <v>22.9485</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>22.98729</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8300,6 +10454,22 @@
       <c r="M140" t="n">
         <v>22.98829</v>
       </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>22.93408</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>22.98829</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8357,6 +10527,22 @@
       <c r="M141" t="n">
         <v>22.9933</v>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>22.9505</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>22.9933</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8414,6 +10600,22 @@
       <c r="M142" t="n">
         <v>22.96705</v>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>22.95179</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>22.96705</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8471,6 +10673,22 @@
       <c r="M143" t="n">
         <v>23.03109</v>
       </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>22.96029</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>23.03109</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8528,6 +10746,22 @@
       <c r="M144" t="n">
         <v>22.98933</v>
       </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>22.94315</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>22.98933</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8585,6 +10819,22 @@
       <c r="M145" t="n">
         <v>26.47879</v>
       </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>26.4518</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>26.47879</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8642,6 +10892,22 @@
       <c r="M146" t="n">
         <v>26.48927</v>
       </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>26.46875</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>26.48927</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8699,6 +10965,22 @@
       <c r="M147" t="n">
         <v>26.47014</v>
       </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>26.44299</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>26.47014</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8756,6 +11038,22 @@
       <c r="M148" t="n">
         <v>26.48797</v>
       </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>26.44608</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>26.48797</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8813,6 +11111,22 @@
       <c r="M149" t="n">
         <v>26.47259</v>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>26.44107</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>26.47259</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8870,6 +11184,22 @@
       <c r="M150" t="n">
         <v>26.46802</v>
       </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>26.43668</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>26.46802</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8927,6 +11257,22 @@
       <c r="M151" t="n">
         <v>26.47912</v>
       </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>26.43459</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>26.47912</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8984,6 +11330,22 @@
       <c r="M152" t="n">
         <v>26.48346</v>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>26.43765</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>26.48346</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9041,6 +11403,22 @@
       <c r="M153" t="n">
         <v>26.47574</v>
       </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>26.44427</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>26.47574</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9098,6 +11476,22 @@
       <c r="M154" t="n">
         <v>26.49968</v>
       </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>26.44963</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>26.49968</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9153,6 +11547,22 @@
         </is>
       </c>
       <c r="M155" t="n">
+        <v>26.46186</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>26.4505</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
         <v>26.46186</v>
       </c>
     </row>
